--- a/results_loading_times/instance_22_times.xlsx
+++ b/results_loading_times/instance_22_times.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -494,35 +494,35 @@
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -533,38 +533,38 @@
         <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -575,10 +575,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
